--- a/bots/crawl_ch/output/electronics_2022-08-15.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -723,50 +723,50 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4488074</t>
+          <t>5920351</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück</t>
+          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/basic-alkaline-batterien-lr03aaa-12-stueck/p/5920351</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>0.83/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -786,60 +786,60 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
+          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5920351</t>
+          <t>4488074</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück</t>
+          <t>Varta Knopfzellen CR2032 2 Stück</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/basic-alkaline-batterien-lr03aaa-12-stueck/p/5920351</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.83/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -859,58 +859,60 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR03/AAA 12 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>6762335</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Duracell Batterien Optimum AA/LR6 8 Stück</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-8-stueck/p/6762335</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24ST</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -920,7 +922,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -935,34 +937,34 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6762335</t>
+          <t>4014528</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 8 Stück</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-8-stueck/p/6762335</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -973,17 +975,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.70/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -993,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1003,60 +1005,58 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 8 Stück 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4014528</t>
+          <t>6762336</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.70/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1081,53 +1081,55 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6762336</t>
+          <t>4905479</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1137,7 +1139,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1147,34 +1149,34 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4905479</t>
+          <t>4905467</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
+          <t>Alkaline Batterie AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/alkaline-batterie-aaalr03-4-stueck/p/4905467</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1183,10 +1185,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1220,43 +1222,43 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
+          <t>Alkaline Batterie AAA/LR03 4 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4905467</t>
+          <t>4905482</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie AAA/LR03 4 Stück</t>
+          <t>Alkaline Batterie LR14/C 2 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/alkaline-batterie-aaalr03-4-stueck/p/4905467</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>4.5</v>
@@ -1273,7 +1275,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1283,7 +1285,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1293,34 +1295,34 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie AAA/LR03 4 Stück 4.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4905482</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1329,24 +1331,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1356,7 +1358,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1371,55 +1373,55 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>4905485</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Alkaline Batterie 6LP3146/9V</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1429,7 +1431,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1444,55 +1446,53 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4905485</t>
+          <t>4949707</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V</t>
+          <t>Varta Knopfzellen CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1517,34 +1517,34 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4949707</t>
+          <t>6753556</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1553,17 +1553,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1583,39 +1583,39 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6753556</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1629,12 +1629,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1659,53 +1659,55 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,7 +1717,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1725,17 +1727,17 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1806,50 +1808,48 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1952,29 +1952,29 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2013,58 +2013,60 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2074,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2084,60 +2086,58 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2157,17 +2157,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2238,48 +2238,50 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2289,7 +2291,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2299,39 +2301,39 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2345,12 +2347,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2360,7 +2362,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2370,17 +2372,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2522,50 +2524,50 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6753554</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2575,7 +2577,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2590,29 +2592,29 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6753554</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2624,21 +2626,21 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2648,7 +2650,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2663,41 +2665,41 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2706,12 +2708,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2721,7 +2723,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2736,55 +2738,55 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.98/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2794,7 +2796,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2804,60 +2806,60 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.98/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2867,7 +2869,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2882,153 +2884,153 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>6753555</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3036,25 +3038,23 @@
           <t>4ST</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3074,58 +3074,60 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6753555</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>19.95/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3135,7 +3137,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3145,60 +3147,60 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>19.95/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3208,7 +3210,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3218,184 +3220,184 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1.87/1ST</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3405,7 +3407,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3415,41 +3417,37 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>3</v>
       </c>
@@ -3458,72 +3456,56 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3532,7 +3514,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3541,42 +3523,42 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3585,7 +3567,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -3594,175 +3576,173 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3771,49 +3751,51 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3822,51 +3804,49 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3875,34 +3855,34 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3912,12 +3892,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3931,29 +3911,29 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3968,7 +3948,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3977,90 +3957,110 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>59.95</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -4074,12 +4074,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4099,120 +4099,102 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -4221,70 +4203,88 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4457,48 +4457,50 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4508,7 +4510,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4523,105 +4525,89 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
@@ -4630,53 +4616,69 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3.74/1ST</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -4687,17 +4689,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4707,7 +4709,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4717,60 +4719,58 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4795,39 +4795,41 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4836,12 +4838,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4851,7 +4853,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4866,12 +4868,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4905,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4917,41 +4919,39 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4985,39 +4985,39 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -5026,17 +5026,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5056,120 +5056,102 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>349.65</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 49% Aktion 349.65 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>699.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5178,51 +5160,49 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 699.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5231,34 +5211,34 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 19.95 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>4881282</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>Miele FJM HyClean 3D (4 Stück)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -5273,7 +5253,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5287,29 +5267,29 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4881282</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück)</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5319,12 +5299,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5333,34 +5313,34 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5370,12 +5350,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5384,34 +5364,34 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5421,12 +5401,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>49.90</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5435,44 +5415,46 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6831289</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Rowenta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5491,37 +5473,37 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5530,7 +5512,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5539,42 +5521,40 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>7</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5583,7 +5563,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5597,29 +5577,29 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -5629,12 +5609,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5643,34 +5623,34 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -5685,7 +5665,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -5699,29 +5679,29 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -5731,12 +5711,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5750,35 +5730,37 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5787,7 +5769,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5801,37 +5783,35 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5840,7 +5820,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5854,29 +5834,29 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -5891,7 +5871,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5905,35 +5885,37 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5942,7 +5924,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5956,87 +5938,105 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6045,17 +6045,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6075,39 +6075,39 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6146,39 +6146,39 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -6192,12 +6192,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6217,39 +6217,39 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6288,88 +6288,17 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>2022-08-15 07:03:29</t>
+          <t>2022-08-15 20:57:24</t>
         </is>
       </c>
     </row>
